--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intellij Frameworks\SampleFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D627AE-9C70-4BE9-8859-35D34ACD1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83825EA3-A3EC-41FE-AD20-E6E645555141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91892C44-A948-4DAE-97EE-FC486AA6BAB8}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
